--- a/chude5_Excel/buoi8/bai2.xlsx
+++ b/chude5_Excel/buoi8/bai2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thực hành tin học cơ sở\Baitap_THTHCS THTH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\chude5_Excel\buoi8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D617C01-EE2A-47F8-A76D-502418A1A8A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD84B78-A2F1-48A8-80B5-B6CC4B339208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,7 @@
     <t>8. Vẽ đồ thị % so sánh tổng số lượng các loại Dầu đã bán ở bảng thống kê</t>
   </si>
   <si>
-    <t>9. Lọc ra danh sách các Tên hàng là Nhớt và có số lượng &lt;500 ra bảng dữ liệu mới</t>
+    <t>9. Lọc ra danh sách các Tên hàng là Nhớt và có số lượng &lt;5000 ra bảng dữ liệu mới</t>
   </si>
 </sst>
 </file>
@@ -218,8 +218,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -333,15 +333,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -353,14 +361,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,40 +665,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -709,14 +709,14 @@
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="3">
         <v>3800</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -725,14 +725,14 @@
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="3">
         <v>5000</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -741,14 +741,14 @@
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="3">
         <v>4500</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -757,14 +757,14 @@
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="3">
         <v>2500</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -773,14 +773,14 @@
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3">
         <v>3600</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -789,14 +789,14 @@
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -805,14 +805,14 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -832,31 +832,31 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -879,11 +879,11 @@
       <c r="G13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -904,11 +904,11 @@
       <c r="G14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">

--- a/chude5_Excel/buoi8/bai2.xlsx
+++ b/chude5_Excel/buoi8/bai2.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NguyenDinh\Desktop\tinhocb\chude5_Excel\buoi8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD84B78-A2F1-48A8-80B5-B6CC4B339208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D95B46-73BD-4F2A-BE27-9A3232804B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang34" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -644,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,9 +717,18 @@
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="8" t="str">
+        <f>VLOOKUP(LEFT(B3),$A$13:$D$15,2,0)</f>
+        <v>Nhớt</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>IF(RIGHT(B3,2)="TN","Trong nước",VLOOKUP(RIGHT(B3,2),$F$13:$G$17,2,0))</f>
+        <v>Castrol</v>
+      </c>
+      <c r="E3" s="8">
+        <f>VLOOKUP(C3,$B$13:$D$15,2,0)</f>
+        <v>9000</v>
+      </c>
       <c r="F3" s="3">
         <v>3800</v>
       </c>
@@ -725,9 +742,18 @@
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="8" t="str">
+        <f t="shared" ref="C4:C9" si="0">VLOOKUP(LEFT(B4),$A$13:$D$15,2,0)</f>
+        <v>Nhớt</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f t="shared" ref="D4:D9" si="1">IF(RIGHT(B4,2)="TN","Trong nước",VLOOKUP(RIGHT(B4,2),$F$13:$G$17,2,0))</f>
+        <v>Mobil</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E9" si="2">VLOOKUP(C4,$B$13:$D$15,2,0)</f>
+        <v>9000</v>
+      </c>
       <c r="F4" s="3">
         <v>5000</v>
       </c>
@@ -741,9 +767,18 @@
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Nhớt</v>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Shell</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
       <c r="F5" s="3">
         <v>4500</v>
       </c>
@@ -757,9 +792,18 @@
       <c r="B6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Dầu</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>British Petro</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="2"/>
+        <v>10800</v>
+      </c>
       <c r="F6" s="3">
         <v>2500</v>
       </c>
@@ -773,9 +817,18 @@
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Dầu</v>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Esso</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="2"/>
+        <v>10800</v>
+      </c>
       <c r="F7" s="3">
         <v>3600</v>
       </c>
@@ -789,9 +842,18 @@
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="C8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Dầu</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Trong nước</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="2"/>
+        <v>10800</v>
+      </c>
       <c r="F8" s="3">
         <v>2400</v>
       </c>
@@ -805,9 +867,18 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Xăng</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>British Petro</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
       <c r="F9" s="3">
         <v>2600</v>
       </c>
